--- a/prestation_equipement.xlsx
+++ b/prestation_equipement.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t xml:space="preserve">N° de prix </t>
   </si>
@@ -25,6 +25,9 @@
     <t>3.4.102</t>
   </si>
   <si>
+    <t>3.4.101a</t>
+  </si>
+  <si>
     <t>VCASU00015</t>
   </si>
   <si>
@@ -32,6 +35,12 @@
   </si>
   <si>
     <t>VELVI00004</t>
+  </si>
+  <si>
+    <t>VCASU00020</t>
+  </si>
+  <si>
+    <t>VCASU00030</t>
   </si>
 </sst>
 </file>
@@ -389,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,7 +417,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -416,7 +425,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -424,6 +433,30 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>

--- a/prestation_equipement.xlsx
+++ b/prestation_equipement.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t xml:space="preserve">N° de prix </t>
   </si>
@@ -22,10 +22,7 @@
     <t>Référence Article</t>
   </si>
   <si>
-    <t>3.4.102</t>
-  </si>
-  <si>
-    <t>3.4.101a</t>
+    <t>3.4.105</t>
   </si>
   <si>
     <t>VCASU00015</t>
@@ -34,13 +31,7 @@
     <t>VCASU00040</t>
   </si>
   <si>
-    <t>VELVI00004</t>
-  </si>
-  <si>
-    <t>VCASU00020</t>
-  </si>
-  <si>
-    <t>VCASU00030</t>
+    <t>VCASU00060</t>
   </si>
 </sst>
 </file>
@@ -398,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,7 +408,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -425,7 +416,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -433,30 +424,6 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
